--- a/Team-Data/2007-08/12-27-2007-08.xlsx
+++ b/Team-Data/2007-08/12-27-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -783,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>11</v>
@@ -795,7 +862,7 @@
         <v>18</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV2" t="n">
         <v>18</v>
@@ -807,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.889</v>
+        <v>0.885</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
@@ -866,10 +933,10 @@
         <v>35.5</v>
       </c>
       <c r="J3" t="n">
-        <v>74.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474</v>
+        <v>0.477</v>
       </c>
       <c r="L3" t="n">
         <v>7.6</v>
@@ -878,55 +945,55 @@
         <v>19.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.391</v>
       </c>
       <c r="O3" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="P3" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="S3" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
         <v>41.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="W3" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -956,13 +1023,13 @@
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -974,25 +1041,25 @@
         <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
       </c>
       <c r="AV3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>13</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>11</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1165,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
@@ -1183,7 +1250,7 @@
         <v>27</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
@@ -1338,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
         <v>14</v>
@@ -1356,16 +1423,16 @@
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -1394,58 +1461,58 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.467</v>
+        <v>0.448</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="R6" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.4</v>
+        <v>43</v>
       </c>
       <c r="U6" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="V6" t="n">
         <v>15.2</v>
@@ -1454,34 +1521,34 @@
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA6" t="n">
         <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.5</v>
+        <v>-3.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -1493,49 +1560,49 @@
         <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
         <v>24</v>
@@ -1547,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>0.633</v>
+        <v>0.655</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="J7" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.466</v>
+        <v>0.47</v>
       </c>
       <c r="L7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M7" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.344</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
         <v>22.3</v>
       </c>
       <c r="P7" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.831</v>
+        <v>0.835</v>
       </c>
       <c r="R7" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T7" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V7" t="n">
         <v>13</v>
@@ -1636,7 +1703,7 @@
         <v>5.9</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y7" t="n">
         <v>3.9</v>
@@ -1645,46 +1712,46 @@
         <v>21.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.9</v>
+        <v>101.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF7" t="n">
         <v>5</v>
       </c>
-      <c r="AF7" t="n">
-        <v>7</v>
-      </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL7" t="n">
         <v>17</v>
       </c>
       <c r="AM7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN7" t="n">
         <v>16</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>2</v>
@@ -1696,16 +1763,16 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1714,13 +1781,13 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA7" t="n">
         <v>14</v>
@@ -1729,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1854,13 +1921,13 @@
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2036,7 +2103,7 @@
         <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>7</v>
@@ -2048,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>1.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>9</v>
@@ -2212,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
@@ -2260,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>9</v>
@@ -2403,10 +2470,10 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>8</v>
@@ -2421,7 +2488,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
         <v>3</v>
@@ -2439,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="AW11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2597,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
@@ -2618,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.333</v>
+        <v>0.346</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
@@ -2686,34 +2753,34 @@
         <v>33.5</v>
       </c>
       <c r="J13" t="n">
-        <v>79.7</v>
+        <v>79.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.42</v>
+        <v>0.423</v>
       </c>
       <c r="L13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M13" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="P13" t="n">
         <v>27</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.774</v>
+        <v>0.78</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T13" t="n">
         <v>42.2</v>
@@ -2728,34 +2795,34 @@
         <v>6.8</v>
       </c>
       <c r="X13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.4</v>
+        <v>-4.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
         <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH13" t="n">
         <v>24</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2779,19 +2846,19 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
         <v>11</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT13" t="n">
         <v>14</v>
@@ -2800,13 +2867,13 @@
         <v>16</v>
       </c>
       <c r="AV13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW13" t="n">
         <v>21</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>21</v>
@@ -2821,7 +2888,7 @@
         <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>5.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
@@ -2937,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2958,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -3003,7 +3070,7 @@
         <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3185,7 +3252,7 @@
         <v>8</v>
       </c>
       <c r="BC15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -3292,19 +3359,19 @@
         <v>-4.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>23</v>
@@ -3346,7 +3413,7 @@
         <v>26</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
@@ -3549,7 +3616,7 @@
         <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3865,13 +3932,13 @@
         <v>23</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>7</v>
@@ -4029,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
         <v>4</v>
@@ -4083,7 +4150,7 @@
         <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
         <v>3</v>
@@ -4095,7 +4162,7 @@
         <v>17</v>
       </c>
       <c r="BC20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4229,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="AM21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
         <v>26</v>
@@ -4268,7 +4335,7 @@
         <v>28</v>
       </c>
       <c r="AZ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
         <v>12</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -4387,19 +4454,19 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH22" t="n">
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>22</v>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
@@ -4438,19 +4505,19 @@
         <v>15</v>
       </c>
       <c r="AV22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW22" t="n">
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>19</v>
@@ -4584,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>18</v>
@@ -4629,7 +4696,7 @@
         <v>7</v>
       </c>
       <c r="AY23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -4670,88 +4737,88 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
         <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.679</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="J24" t="n">
-        <v>85.3</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="L24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M24" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="N24" t="n">
         <v>0.372</v>
       </c>
       <c r="O24" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P24" t="n">
         <v>21.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.784</v>
+        <v>0.779</v>
       </c>
       <c r="R24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="S24" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="T24" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U24" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="V24" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="W24" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X24" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y24" t="n">
         <v>3.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="AA24" t="n">
         <v>19.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
         <v>4</v>
@@ -4787,13 +4854,13 @@
         <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT24" t="n">
         <v>26</v>
@@ -4805,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-1</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5191,7 @@
         <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>24</v>
@@ -5148,7 +5215,7 @@
         <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5382,7 @@
         <v>18</v>
       </c>
       <c r="AK27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL27" t="n">
         <v>4</v>
@@ -5324,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO27" t="n">
         <v>27</v>
@@ -5339,7 +5406,7 @@
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>0.276</v>
+        <v>0.286</v>
       </c>
       <c r="H28" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I28" t="n">
         <v>37.2</v>
       </c>
       <c r="J28" t="n">
-        <v>84.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.439</v>
@@ -5428,7 +5495,7 @@
         <v>13.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O28" t="n">
         <v>19</v>
@@ -5443,31 +5510,31 @@
         <v>11.6</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>44.9</v>
+        <v>44.7</v>
       </c>
       <c r="U28" t="n">
         <v>20.6</v>
       </c>
       <c r="V28" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.3</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>5.2</v>
       </c>
       <c r="Z28" t="n">
         <v>21.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB28" t="n">
         <v>98.09999999999999</v>
@@ -5476,25 +5543,25 @@
         <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK28" t="n">
         <v>23</v>
@@ -5518,7 +5585,7 @@
         <v>9</v>
       </c>
       <c r="AR28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
@@ -5527,16 +5594,16 @@
         <v>2</v>
       </c>
       <c r="AU28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
@@ -5545,7 +5612,7 @@
         <v>15</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5703,7 +5770,7 @@
         <v>20</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5964,7 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
         <v>27</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6101,7 @@
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
@@ -6046,13 +6113,13 @@
         <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-27-2007-08</t>
+          <t>2007-12-27</t>
         </is>
       </c>
     </row>
